--- a/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
+++ b/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2414F1-6E02-41E7-A081-65FFC9138DE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Color Codes</t>
   </si>
@@ -131,12 +130,24 @@
   </si>
   <si>
     <t>IsSecondPSU</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -669,11 +680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,7 +700,7 @@
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -697,7 +708,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -709,7 +720,7 @@
       </c>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -719,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -731,13 +742,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -765,8 +776,14 @@
       <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -793,6 +810,12 @@
       </c>
       <c r="I8" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
+++ b/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E856D6D-F595-4BD1-B050-921A36C5EE1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -698,6 +699,8 @@
     <col min="7" max="7" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">

--- a/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
+++ b/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E856D6D-F595-4BD1-B050-921A36C5EE1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -139,16 +138,16 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -681,11 +680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
+++ b/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C534B7C2-AE72-4A3E-B572-45435A6849BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -123,12 +124,6 @@
     <t>Battery Standby</t>
   </si>
   <si>
-    <t>NGC-1928</t>
-  </si>
-  <si>
-    <t>FIRECLASS 32-1</t>
-  </si>
-  <si>
     <t>IsSecondPSU</t>
   </si>
   <si>
@@ -142,12 +137,18 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>FC32-1</t>
+  </si>
+  <si>
+    <t>NGC-1928/T959 OR TC-71688</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,11 +681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,8 +737,8 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
@@ -776,24 +777,24 @@
         <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -801,23 +802,23 @@
       <c r="E8" s="2">
         <v>16</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="9">
-        <v>0.22600000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="H8" s="9">
-        <v>0.22700000000000001</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="I8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
+++ b/Test Data/TC_71688_Verify_Battery_Standby_On_Changing_CPU_FC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C534B7C2-AE72-4A3E-B572-45435A6849BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858AC41-4A2F-462F-BFED-71444CD89474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +809,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="H8" s="9">
-        <v>0.38700000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="I8" s="2" t="b">
         <v>0</v>
